--- a/HRMS/MstMenuActions.xlsx
+++ b/HRMS/MstMenuActions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Table Name - MstMenuActions</t>
   </si>
@@ -107,13 +107,49 @@
   </si>
   <si>
     <t>MstMenumenuid</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get menuid  ( MstMenu) in Numaric </t>
+  </si>
+  <si>
+    <t>Take menuactionname as String.</t>
+  </si>
+  <si>
+    <t>For  status Check.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take menuaction as String.</t>
+  </si>
+  <si>
+    <t>Take MenuMastersno as Int.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Take MenuActionsmenuactionid as Int.</t>
+  </si>
+  <si>
+    <t>Take MstMenuActionsmenuactionid as Int.</t>
+  </si>
+  <si>
+    <t>Take MstMenumenuid as Int.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +164,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,14 +212,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,6 +223,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,279 +543,303 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/MstMenuActions.xlsx
+++ b/HRMS/MstMenuActions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Table Name - MstMenuActions</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Take MstMenumenuid as Int.</t>
+  </si>
+  <si>
+    <t>Take parentmenuactionid as Int.</t>
   </si>
 </sst>
 </file>
@@ -223,12 +226,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -236,6 +233,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +546,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,32 +559,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -619,7 +622,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -627,7 +630,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -637,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -655,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -673,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -691,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -709,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -727,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -745,7 +748,9 @@
         <v>16</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -761,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -779,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -797,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -817,7 +822,7 @@
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -837,7 +842,7 @@
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>42</v>
       </c>
     </row>

--- a/HRMS/MstMenuActions.xlsx
+++ b/HRMS/MstMenuActions.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - MstMenuActions</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Take parentmenuactionid as Int.</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में मेनू क्रियाओं का विवरण  है।</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -588,22 +588,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,19 +611,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,17 +631,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,17 +649,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,17 +667,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,17 +685,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,17 +703,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,17 +721,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,17 +739,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,17 +757,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,17 +775,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,17 +793,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,19 +811,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,19 +831,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
